--- a/tracking/tpivot-next-steps2017-06-19.xlsx
+++ b/tracking/tpivot-next-steps2017-06-19.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tpivot\tracking\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
   <si>
     <t>Stage</t>
   </si>
@@ -165,6 +170,9 @@
   </si>
   <si>
     <t>2 Day</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -677,7 +685,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -689,12 +697,12 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
@@ -731,7 +739,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -811,10 +819,10 @@
         <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -837,7 +845,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -877,7 +885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,7 +905,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -917,7 +925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -937,7 +945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -957,7 +965,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -980,7 +988,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1005,16 +1013,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G14">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="HIGH"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="MED"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="5">
       <filters>
         <filter val="Not started"/>

--- a/tracking/tpivot-next-steps2017-06-19.xlsx
+++ b/tracking/tpivot-next-steps2017-06-19.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
   <si>
     <t>Stage</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Tabled</t>
+  </si>
+  <si>
+    <t>Next</t>
   </si>
 </sst>
 </file>
@@ -693,11 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,8 +763,11 @@
       <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -782,7 +790,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -802,7 +810,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -822,7 +830,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -865,7 +873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -882,7 +890,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -904,6 +912,9 @@
       <c r="F9" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -965,7 +976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -988,7 +999,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1012,13 +1023,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G14">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Not started"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/tracking/tpivot-next-steps2017-06-19.xlsx
+++ b/tracking/tpivot-next-steps2017-06-19.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$14</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
   <si>
     <t>Stage</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Refactor Jquery code to use module pattern, separating model operations from view operations in own name spaces to increase maintainability.</t>
   </si>
   <si>
-    <t>Model fns are lexically separate and each is a pure function. Will audit each fn to ensure compliance w/ model.</t>
-  </si>
-  <si>
     <t>These sets of fns are already lexically separate. Not difficult to move into own modules.</t>
   </si>
   <si>
@@ -100,24 +97,15 @@
     <t>Flexbox</t>
   </si>
   <si>
-    <t>Font Awesome is already a dependency and has nice animated spinners for this. Spinner will be created on request to server and destroyed on response from server.</t>
-  </si>
-  <si>
     <t>Not started</t>
   </si>
   <si>
-    <t>Started</t>
-  </si>
-  <si>
     <t>Parse</t>
   </si>
   <si>
     <t>Add ability to slice pivot on multiple columns</t>
   </si>
   <si>
-    <t>Multiple columns are doable but will need to figure out how to cleanly create a string with all column combos. See https://stackoverflow.com/questions/38696067/oracle-sql-pivot-on-multiple-columns-fields</t>
-  </si>
-  <si>
     <t>Add ability to use multiple aggregators</t>
   </si>
   <si>
@@ -166,19 +154,16 @@
     <t>Complete</t>
   </si>
   <si>
-    <t>1 Day</t>
-  </si>
-  <si>
-    <t>2 Day</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>Tabled</t>
   </si>
   <si>
-    <t>Next</t>
+    <t>Will audit each model fn to ensure compliance w/ model.</t>
+  </si>
+  <si>
+    <t>Font Awesome is already a dependency and has nice animated spinners for this. Spinner will be created on request to server and destroyed on response from server (unless another request is in progress).</t>
+  </si>
+  <si>
+    <t>Multiple columns are doable but will need to figure out how to cleanly create a query string with all column combos. See https://stackoverflow.com/questions/38696067/oracle-sql-pivot-on-multiple-columns-fields</t>
   </si>
 </sst>
 </file>
@@ -699,10 +684,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,10 +727,10 @@
         <v>3</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -758,16 +744,13 @@
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -781,16 +764,16 @@
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -804,13 +787,13 @@
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -824,18 +807,18 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>15</v>
@@ -844,13 +827,10 @@
         <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -867,13 +847,13 @@
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -887,13 +867,13 @@
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -907,21 +887,18 @@
         <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>15</v>
@@ -930,58 +907,58 @@
         <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="F11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>15</v>
@@ -990,21 +967,18 @@
         <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>15</v>
@@ -1013,16 +987,20 @@
         <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H14">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Not started"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/tracking/tpivot-next-steps2017-06-19.xlsx
+++ b/tracking/tpivot-next-steps2017-06-19.xlsx
@@ -85,9 +85,6 @@
     <t>Refactor Jquery code to use module pattern, separating model operations from view operations in own name spaces to increase maintainability.</t>
   </si>
   <si>
-    <t>These sets of fns are already lexically separate. Not difficult to move into own modules.</t>
-  </si>
-  <si>
     <t>Add hook to change field list DOM on (drop in sorting bucket) and (remove from sorting bucket).</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>Multiple columns are doable but will need to figure out how to cleanly create a query string with all column combos. See https://stackoverflow.com/questions/38696067/oracle-sql-pivot-on-multiple-columns-fields</t>
+  </si>
+  <si>
+    <t>View/model operations are already lexically separate. Not difficult to move into own modules.</t>
   </si>
 </sst>
 </file>
@@ -688,7 +688,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +727,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -744,10 +744,10 @@
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -764,13 +764,13 @@
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -787,10 +787,10 @@
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -807,10 +807,10 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -818,7 +818,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>15</v>
@@ -827,10 +827,10 @@
         <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -867,13 +867,13 @@
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -887,19 +887,19 @@
         <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
@@ -907,58 +907,58 @@
         <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>15</v>
@@ -967,18 +967,18 @@
         <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>15</v>
@@ -987,10 +987,10 @@
         <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/tracking/tpivot-next-steps2017-06-19.xlsx
+++ b/tracking/tpivot-next-steps2017-06-19.xlsx
@@ -730,7 +730,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>

--- a/tracking/tpivot-next-steps2017-06-19.xlsx
+++ b/tracking/tpivot-next-steps2017-06-19.xlsx
@@ -688,7 +688,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +930,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">

--- a/tracking/tpivot-next-steps2017-06-19.xlsx
+++ b/tracking/tpivot-next-steps2017-06-19.xlsx
@@ -688,7 +688,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,7 +910,7 @@
         <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="105" x14ac:dyDescent="0.25">
